--- a/tiktok_search_baby_best_moments.xlsx
+++ b/tiktok_search_baby_best_moments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,6 +426,7 @@
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="34" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,22 +540,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@list_legend_/video/7542651173401054486</t>
+          <t>https://www.tiktok.com/@bigjshorty/video/7521869590788328726</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>list_legend_</t>
+          <t>bigjshorty</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7542651173401054486</t>
+          <t>7521869590788328726</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Video by @list_legend_</t>
+          <t>Video by @bigjshorty</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@bigjshorty/video/7521869590788328726</t>
+          <t>https://www.tiktok.com/@list_legend_/video/7542651173401054486</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bigjshorty</t>
+          <t>list_legend_</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7521869590788328726</t>
+          <t>7542651173401054486</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Video by @bigjshorty</t>
+          <t>Video by @list_legend_</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -593,22 +594,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@rank_vibe/video/7542875284442287382</t>
+          <t>https://www.tiktok.com/@jasonrankings/video/7509982486055652624</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rank_vibe</t>
+          <t>jasonrankings</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7542875284442287382</t>
+          <t>7509982486055652624</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Video by @rank_vibe</t>
+          <t>Video by @jasonrankings</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -616,26 +617,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@valrenic_0/video/7492234704544976171</t>
+          <t>https://www.tiktok.com/@topworldmoment/video/7487241884029472022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>valrenic_0</t>
+          <t>topworldmoment</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7492234704544976171</t>
+          <t>7487241884029472022</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Video by @valrenic_0</t>
+          <t>Video by @topworldmoment</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -643,26 +645,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jasonrankings/video/7509982486055652624</t>
+          <t>https://www.tiktok.com/@sunyv8/video/7544443398309170462</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jasonrankings</t>
+          <t>sunyv8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7509982486055652624</t>
+          <t>7544443398309170462</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Video by @jasonrankings</t>
+          <t>Video by @sunyv8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -670,26 +673,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@pointlezv2/video/7534737765255187734</t>
+          <t>https://www.tiktok.com/@shayemaries/video/7441045542362221855</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pointlezv2</t>
+          <t>shayemaries</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7534737765255187734</t>
+          <t>7441045542362221855</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Video by @pointlezv2</t>
+          <t>Video by @shayemaries</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -697,26 +701,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@abdtop1/video/7482135265306283294</t>
+          <t>https://www.tiktok.com/@valrenic_0/video/7492234704544976171</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>abdtop1</t>
+          <t>valrenic_0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7482135265306283294</t>
+          <t>7492234704544976171</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Video by @abdtop1</t>
+          <t>Video by @valrenic_0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -724,26 +729,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@topworldmoment/video/7487241884029472022</t>
+          <t>https://www.tiktok.com/@himskix4rankings/video/7540775452785364246</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>topworldmoment</t>
+          <t>himskix4rankings</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7487241884029472022</t>
+          <t>7540775452785364246</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Video by @topworldmoment</t>
+          <t>Video by @himskix4rankings</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -751,26 +757,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@clipped.core/video/7541345979627506946</t>
+          <t>https://www.tiktok.com/@shortclipz873/video/7474578900610305302</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>clipped.core</t>
+          <t>shortclipz873</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7541345979627506946</t>
+          <t>7474578900610305302</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Video by @clipped.core</t>
+          <t>Video by @shortclipz873</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -778,26 +785,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@pointlezv2/video/7538819437474991382</t>
+          <t>https://www.tiktok.com/@morezazacore/video/7486488730153405718</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pointlezv2</t>
+          <t>morezazacore</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7538819437474991382</t>
+          <t>7486488730153405718</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Video by @pointlezv2</t>
+          <t>Video by @morezazacore</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -805,26 +813,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@funnybabyclipss/video/7538302214507351318</t>
+          <t>https://www.tiktok.com/@goranking3/video/7544901477152607501</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>funnybabyclipss</t>
+          <t>goranking3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7538302214507351318</t>
+          <t>7544901477152607501</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Video by @funnybabyclipss</t>
+          <t>Video by @goranking3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -832,26 +841,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@bababoii.clip/video/7522141760202525966</t>
+          <t>https://www.tiktok.com/@sh_yannick/video/7540601349088480534</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bababoii.clip</t>
+          <t>sh_yannick</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7522141760202525966</t>
+          <t>7540601349088480534</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Video by @bababoii.clip</t>
+          <t>Video by @sh_yannick</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -859,26 +869,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@morezazacore/video/7486488730153405718</t>
+          <t>https://www.tiktok.com/@top5.moment3/video/7542983541412334870</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>morezazacore</t>
+          <t>top5.moment3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7486488730153405718</t>
+          <t>7542983541412334870</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Video by @morezazacore</t>
+          <t>Video by @top5.moment3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -886,26 +897,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@dailytrendz_1/video/7511712395555867926</t>
+          <t>https://www.tiktok.com/@se7en.spot/video/7543737005071600918</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dailytrendz_1</t>
+          <t>se7en.spot</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7511712395555867926</t>
+          <t>7543737005071600918</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Video by @dailytrendz_1</t>
+          <t>Video by @se7en.spot</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -913,26 +925,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@topxmomentss/video/7538290470200282390</t>
+          <t>https://www.tiktok.com/@rank_vibe/video/7542875284442287382</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>topxmomentss</t>
+          <t>rank_vibe</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7538290470200282390</t>
+          <t>7542875284442287382</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Video by @topxmomentss</t>
+          <t>Video by @rank_vibe</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -940,26 +953,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@topfive_daily5/video/7518322620324941078</t>
+          <t>https://www.tiktok.com/@zeruno.5/video/7528595574078098719</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>topfive_daily5</t>
+          <t>zeruno.5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7518322620324941078</t>
+          <t>7528595574078098719</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Video by @topfive_daily5</t>
+          <t>Video by @zeruno.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -967,26 +981,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@dailytrendz_1/video/7517316699033570582</t>
+          <t>https://www.tiktok.com/@ehculo/video/7414353284070214944</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dailytrendz_1</t>
+          <t>ehculo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7517316699033570582</t>
+          <t>7414353284070214944</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Video by @dailytrendz_1</t>
+          <t>Video by @ehculo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -994,26 +1009,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@shortclipz873/video/7474578900610305302</t>
+          <t>https://www.tiktok.com/@dailytrendz_1/video/7517316699033570582</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>shortclipz873</t>
+          <t>dailytrendz_1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7474578900610305302</t>
+          <t>7517316699033570582</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Video by @shortclipz873</t>
+          <t>Video by @dailytrendz_1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1021,26 +1037,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@tiktokvpnfour/video/7540718688429706551</t>
+          <t>https://www.tiktok.com/@baby.ai010/video/7542926305084345655</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tiktokvpnfour</t>
+          <t>baby.ai010</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7540718688429706551</t>
+          <t>7542926305084345655</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Video by @tiktokvpnfour</t>
+          <t>Video by @baby.ai010</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1048,26 +1065,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@funnybabyclipss/video/7538340147906104598</t>
+          <t>https://www.tiktok.com/@espn/video/7439109332806946090</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>funnybabyclipss</t>
+          <t>espn</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7538340147906104598</t>
+          <t>7439109332806946090</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Video by @funnybabyclipss</t>
+          <t>Video by @espn</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1075,26 +1093,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@thebestfunnybabyvideos/video/7402988740618030382</t>
+          <t>https://www.tiktok.com/@viralreelzofficial/video/7542885097108704534</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>thebestfunnybabyvideos</t>
+          <t>viralreelzofficial</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7402988740618030382</t>
+          <t>7542885097108704534</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Video by @thebestfunnybabyvideos</t>
+          <t>Video by @viralreelzofficial</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1102,26 +1121,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@lustigebabyvideos/video/7241850014148922651</t>
+          <t>https://www.tiktok.com/@top5.moment3/video/7542942930038738198</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lustigebabyvideos</t>
+          <t>top5.moment3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7241850014148922651</t>
+          <t>7542942930038738198</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Video by @lustigebabyvideos</t>
+          <t>Video by @top5.moment3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1129,26 +1149,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@epic4mix/video/7456819581189885206</t>
+          <t>https://www.tiktok.com/@idailyfunfacts/video/7492839093810892078</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>epic4mix</t>
+          <t>idailyfunfacts</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7456819581189885206</t>
+          <t>7492839093810892078</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Video by @epic4mix</t>
+          <t>Video by @idailyfunfacts</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1156,26 +1177,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@myzonclipz/video/7457420866679262496</t>
+          <t>https://www.tiktok.com/@topfive_daily5/video/7518322620324941078</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>myzonclipz</t>
+          <t>topfive_daily5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7457420866679262496</t>
+          <t>7518322620324941078</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Video by @myzonclipz</t>
+          <t>Video by @topfive_daily5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1183,26 +1205,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@funnybabyclipss/video/7529789628874853654</t>
+          <t>https://www.tiktok.com/@mkdtt1/video/7528253035739467038</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>funnybabyclipss</t>
+          <t>mkdtt1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7529789628874853654</t>
+          <t>7528253035739467038</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Video by @funnybabyclipss</t>
+          <t>Video by @mkdtt1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1210,26 +1233,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@praylasylaj/video/7493116377415421202</t>
+          <t>https://www.tiktok.com/@maxy_bon_cookie5/video/7540756137977613570</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>praylasylaj</t>
+          <t>maxy_bon_cookie5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7493116377415421202</t>
+          <t>7540756137977613570</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Video by @praylasylaj</t>
+          <t>Video by @maxy_bon_cookie5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1237,26 +1261,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@central.five5/video/7492407668271762710</t>
+          <t>https://www.tiktok.com/@pointlezv2/video/7534737765255187734</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>central.five5</t>
+          <t>pointlezv2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7492407668271762710</t>
+          <t>7534737765255187734</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Video by @central.five5</t>
+          <t>Video by @pointlezv2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1264,26 +1289,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@delboiis_laughs/video/7515512161431506198</t>
+          <t>https://www.tiktok.com/@iam.drexo/video/7544082802673765654</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>delboiis_laughs</t>
+          <t>iam.drexo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7515512161431506198</t>
+          <t>7544082802673765654</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Video by @delboiis_laughs</t>
+          <t>Video by @iam.drexo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1291,26 +1317,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ehculo/video/7414353284070214944</t>
+          <t>https://www.tiktok.com/@thebestfunnybabyvideos/video/7402988740618030382</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ehculo</t>
+          <t>thebestfunnybabyvideos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7414353284070214944</t>
+          <t>7402988740618030382</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Video by @ehculo</t>
+          <t>Video by @thebestfunnybabyvideos</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1318,26 +1345,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@88_music_88/video/7452037280501419286</t>
+          <t>https://www.tiktok.com/@boffa.rankings/video/7500058875727760686</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>88_music_88</t>
+          <t>boffa.rankings</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7452037280501419286</t>
+          <t>7500058875727760686</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Video by @88_music_88</t>
+          <t>Video by @boffa.rankings</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1345,26 +1373,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@thebestfunnybabyvideos/video/7399611133516172586</t>
+          <t>https://www.tiktok.com/@itsjust.4fun/video/7216003937546030342</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>thebestfunnybabyvideos</t>
+          <t>itsjust.4fun</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7399611133516172586</t>
+          <t>7216003937546030342</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Video by @thebestfunnybabyvideos</t>
+          <t>Video by @itsjust.4fun</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1372,26 +1401,27 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@shayemaries/video/7441045542362221855</t>
+          <t>https://www.tiktok.com/@pointlezv2/video/7538819437474991382</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>shayemaries</t>
+          <t>pointlezv2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7441045542362221855</t>
+          <t>7538819437474991382</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Video by @shayemaries</t>
+          <t>Video by @pointlezv2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1399,6 +1429,7 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1426,6 +1457,1043 @@
           <t>baby best moments</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@honeycrisp5/video/7542720309623868686</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>honeycrisp5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>7542720309623868686</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Video by @honeycrisp5</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@funnybabyclipss/video/7538302214507351318</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>funnybabyclipss</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>7538302214507351318</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Video by @funnybabyclipss</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@dailytrendz_1/video/7511712395555867926</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dailytrendz_1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7511712395555867926</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Video by @dailytrendz_1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bababoii.clip/video/7522141760202525966</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>bababoii.clip</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>7522141760202525966</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Video by @bababoii.clip</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@se7en.spot/video/7544604676402973974</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>se7en.spot</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>7544604676402973974</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Video by @se7en.spot</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@epic4mix/video/7456819581189885206</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>epic4mix</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>7456819581189885206</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Video by @epic4mix</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@i4mnei/video/7538845474023951638</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>i4mnei</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>7538845474023951638</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Video by @i4mnei</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@epic4mix/video/7451626247798459670</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>epic4mix</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>7451626247798459670</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Video by @epic4mix</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@topxmomentss/video/7538290470200282390</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>topxmomentss</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>7538290470200282390</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Video by @topxmomentss</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@funnyhub0002/video/7544467415514533150</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>funnyhub0002</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>7544467415514533150</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Video by @funnyhub0002</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@funnybebesoftiktok/video/7480940172125785390</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>funnybebesoftiktok</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7480940172125785390</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Video by @funnybebesoftiktok</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@dailyjosiclips/video/7452332629317192993</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>dailyjosiclips</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>7452332629317192993</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Video by @dailyjosiclips</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@praylasylaj/video/7493116377415421202</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>praylasylaj</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>7493116377415421202</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Video by @praylasylaj</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@journey0fhappiness/video/7444980804591029526</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>journey0fhappiness</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>7444980804591029526</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Video by @journey0fhappiness</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ncnprank/video/7538416542891986206</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ncnprank</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>7538416542891986206</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Video by @ncnprank</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@parentbible.com/video/7536120628911426838</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>parentbible.com</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>7536120628911426838</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Video by @parentbible.com</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@myzonclipz/video/7457420866679262496</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>myzonclipz</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>7457420866679262496</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Video by @myzonclipz</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@useri1xt7pm9us/video/7411139708664745249</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>useri1xt7pm9us</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>7411139708664745249</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Video by @useri1xt7pm9us</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@topworldmoment/video/7540627779289926934</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>topworldmoment</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>7540627779289926934</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Video by @topworldmoment</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ehfea/video/7536937672632192270</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ehfea</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>7536937672632192270</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Video by @ehfea</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee_mertens_/video/7430219051646913838</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>kaylee_mertens_</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>7430219051646913838</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Video by @kaylee_mertens_</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jamaicaapov/video/7497934473078639879</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>jamaicaapov</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>7497934473078639879</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Video by @jamaicaapov</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@babyluxi/video/7528023639946448150</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>babyluxi</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>7528023639946448150</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Video by @babyluxi</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ladbibleireland/video/7253807274685107483</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ladbibleireland</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>7253807274685107483</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Video by @ladbibleireland</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@molly.j.miller/video/7120973212913175854</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>molly.j.miller</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>7120973212913175854</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Video by @molly.j.miller</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@funcore_10/video/7536882667988569366</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>funcore_10</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>7536882667988569366</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Video by @funcore_10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@funnyvideo3242/video/7465390801917349162</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>funnyvideo3242</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>7465390801917349162</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Video by @funnyvideo3242</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kiddievibes.21/video/7433814693556325664</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>kiddievibes.21</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>7433814693556325664</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Video by @kiddievibes.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@dreamweaver0236/video/7462501077867416874</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>dreamweaver0236</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>7462501077867416874</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Video by @dreamweaver0236</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@irishdaily/video/7184894744605068549</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>irishdaily</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>7184894744605068549</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Video by @irishdaily</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@its.just4fun618/video/7496812921356422446</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>its.just4fun618</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>7496812921356422446</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Video by @its.just4fun618</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cute.baby4224/video/7500284257852509462</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cute.baby4224</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>7500284257852509462</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Video by @cute.baby4224</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ale4h18/video/7524292788087721246</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ale4h18</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>7524292788087721246</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Video by @ale4h18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cuutee.kids/video/7333980488203242795</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cuutee.kids</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>7333980488203242795</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Video by @cuutee.kids</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adam.and.diana/video/7326148357536140577</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>adam.and.diana</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>7326148357536140577</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Video by @adam.and.diana</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@babyoftiktok68/video/7409694062044859680</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>babyoftiktok68</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>7409694062044859680</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Video by @babyoftiktok68</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mommydesi333/video/7285020809104493854</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>mommydesi333</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>7285020809104493854</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Video by @mommydesi333</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>baby best moments</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
